--- a/roykenvgs.xlsx
+++ b/roykenvgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vikenfk-my.sharepoint.com/personal/serdard_viken_no/Documents/Skrivebord/presentasjoner/2ITA Utvikling/20 Uke2 - 7 timer/Uke2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive - Viken fylkeskommune\Skole Fag\Vg 2\Utvikling\Programming vg2\Uke-2-JS_10_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_AD4D1D646341095ACB7000732557C486693EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1793FE12-D5A9-4502-A7B5-1DA8CA30016E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A73BEE-FECE-4B4F-AC9D-DE2377093E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>forNavn</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Enuella</t>
   </si>
   <si>
-    <t>Emanuelsen</t>
-  </si>
-  <si>
     <t>Bendik Øvrebø</t>
   </si>
   <si>
@@ -189,6 +186,12 @@
   </si>
   <si>
     <t>Verden</t>
+  </si>
+  <si>
+    <t>Emanuelsen2</t>
+  </si>
+  <si>
+    <t>Emanuelsen1</t>
   </si>
 </sst>
 </file>
@@ -276,10 +279,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,25 +544,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -586,10 +585,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -612,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -638,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -649,7 +648,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>17</v>
@@ -664,189 +663,215 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>4788989004</v>
+        <v>4788989003</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>4788989005</v>
+        <v>4788989004</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>4788989006</v>
+        <v>4788989005</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>4788989007</v>
+        <v>4788989006</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>4788989008</v>
+        <v>4788989007</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>4788989009</v>
+        <v>4788989008</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11">
+        <v>4788989009</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11">
+      <c r="D12">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11">
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
         <v>4788989010</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
+      <c r="H12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -855,32 +880,54 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{9337FEC8-7616-4740-A89A-14A44508997E}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{AEE8BB97-A1F1-4229-AAC4-BDD0831ECF43}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{64DC5E3D-DDF3-4C7D-89A0-2A4B6294CA8C}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{2D096DB3-F9E2-41A9-81D7-86B3E1D4475F}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{6C79A1A9-E6E2-4A03-98CD-836391FB800C}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{7C543A85-D314-4335-9B0F-02C8EC051314}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{29A84795-694C-43F7-A9CE-3CDE61B6B39D}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{2D096DB3-F9E2-41A9-81D7-86B3E1D4475F}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{6C79A1A9-E6E2-4A03-98CD-836391FB800C}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{7C543A85-D314-4335-9B0F-02C8EC051314}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{29A84795-694C-43F7-A9CE-3CDE61B6B39D}"/>
     <hyperlink ref="E2" r:id="rId8" xr:uid="{75ABAE5B-0ACD-4DCA-9E56-EB8109780F58}"/>
     <hyperlink ref="E4" r:id="rId9" xr:uid="{AD3E2DD6-8AA3-44F5-88FC-6E0BF85B1BD4}"/>
-    <hyperlink ref="E5" r:id="rId10" xr:uid="{2A347BDC-2336-4F78-8D62-CA14E043B318}"/>
-    <hyperlink ref="E6" r:id="rId11" xr:uid="{FE6554EF-9EDB-465A-85A7-22DDFCAEC42F}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{5CD1B7DF-D0A0-45B1-B40F-93E043127F17}"/>
-    <hyperlink ref="E8" r:id="rId13" xr:uid="{07BECAF4-F3E1-4523-B93A-16CDCC5EE435}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{2A347BDC-2336-4F78-8D62-CA14E043B318}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{FE6554EF-9EDB-465A-85A7-22DDFCAEC42F}"/>
+    <hyperlink ref="E8" r:id="rId12" xr:uid="{5CD1B7DF-D0A0-45B1-B40F-93E043127F17}"/>
+    <hyperlink ref="E9" r:id="rId13" xr:uid="{07BECAF4-F3E1-4523-B93A-16CDCC5EE435}"/>
     <hyperlink ref="E3" r:id="rId14" xr:uid="{1AE2D02A-75C2-40A9-8CE9-4C7CA2EE74E7}"/>
-    <hyperlink ref="E3:E7" r:id="rId15" display="elev1@gmail.com" xr:uid="{E4432BA4-5C48-4AC5-8927-DB26BE42D8B3}"/>
-    <hyperlink ref="E9:E11" r:id="rId16" display="elev7@gmail.com" xr:uid="{1F091FBC-808D-45E3-9023-4B4091C4CE1F}"/>
-    <hyperlink ref="E9" r:id="rId17" xr:uid="{18B940BB-E4BA-4775-BBEC-9019C25CD882}"/>
-    <hyperlink ref="E10" r:id="rId18" xr:uid="{AB4A1BD5-D53D-40EF-88B3-2A1AD8E02012}"/>
-    <hyperlink ref="E11" r:id="rId19" xr:uid="{9530CCDE-D5CE-4041-A89A-CB3B8F238C08}"/>
-    <hyperlink ref="G9" r:id="rId20" xr:uid="{FEEB86F1-CBB4-4EF1-9FE5-33C87449D086}"/>
-    <hyperlink ref="G10" r:id="rId21" xr:uid="{30FEED3B-43F1-438A-BB92-2EF977A54ECF}"/>
-    <hyperlink ref="G11" r:id="rId22" xr:uid="{6FACF146-4523-4663-984D-3050BDA59224}"/>
+    <hyperlink ref="E3:E8" r:id="rId15" display="elev1@gmail.com" xr:uid="{E4432BA4-5C48-4AC5-8927-DB26BE42D8B3}"/>
+    <hyperlink ref="E10:E12" r:id="rId16" display="elev7@gmail.com" xr:uid="{1F091FBC-808D-45E3-9023-4B4091C4CE1F}"/>
+    <hyperlink ref="E10" r:id="rId17" xr:uid="{18B940BB-E4BA-4775-BBEC-9019C25CD882}"/>
+    <hyperlink ref="E11" r:id="rId18" xr:uid="{AB4A1BD5-D53D-40EF-88B3-2A1AD8E02012}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{9530CCDE-D5CE-4041-A89A-CB3B8F238C08}"/>
+    <hyperlink ref="G10" r:id="rId20" xr:uid="{FEEB86F1-CBB4-4EF1-9FE5-33C87449D086}"/>
+    <hyperlink ref="G11" r:id="rId21" xr:uid="{30FEED3B-43F1-438A-BB92-2EF977A54ECF}"/>
+    <hyperlink ref="G12" r:id="rId22" xr:uid="{6FACF146-4523-4663-984D-3050BDA59224}"/>
+    <hyperlink ref="E5" r:id="rId23" display="elev1@gmail.com" xr:uid="{1F076233-915F-4D87-A91F-1CE854C102D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="49a2e401-b3ed-461c-be75-299f8678ebf6" xsi:nil="true"/>
+    <TaxCatchAll xmlns="5095711a-eb32-40e1-8a52-18d1b4f69780" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49a2e401-b3ed-461c-be75-299f8678ebf6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2CF69CC74EB20459BE2BA63CA1DB0B5" ma:contentTypeVersion="8" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="07d8f823a6233390da0086d503a7eae6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49a2e401-b3ed-461c-be75-299f8678ebf6" xmlns:ns3="5095711a-eb32-40e1-8a52-18d1b4f69780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d3b91da541157e589b350092f61b8a75" ns2:_="" ns3:_="">
     <xsd:import namespace="49a2e401-b3ed-461c-be75-299f8678ebf6"/>
@@ -1055,35 +1102,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="49a2e401-b3ed-461c-be75-299f8678ebf6" xsi:nil="true"/>
-    <TaxCatchAll xmlns="5095711a-eb32-40e1-8a52-18d1b4f69780" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49a2e401-b3ed-461c-be75-299f8678ebf6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D496B9BB-B49E-4729-8EC7-350476678D9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F781076F-F1CF-4A1D-8913-E5C128223715}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F781076F-F1CF-4A1D-8913-E5C128223715}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CEF049-C3AA-4D09-9016-5A73201940DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49a2e401-b3ed-461c-be75-299f8678ebf6"/>
+    <ds:schemaRef ds:uri="5095711a-eb32-40e1-8a52-18d1b4f69780"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9CEF049-C3AA-4D09-9016-5A73201940DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D496B9BB-B49E-4729-8EC7-350476678D9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49a2e401-b3ed-461c-be75-299f8678ebf6"/>
+    <ds:schemaRef ds:uri="5095711a-eb32-40e1-8a52-18d1b4f69780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>